--- a/web/InventorySystem/uploadfiles/inventory/inventory_template.xlsx
+++ b/web/InventorySystem/uploadfiles/inventory/inventory_template.xlsx
@@ -39,7 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operator</t>
+    <t>operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -417,25 +418,28 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -461,7 +465,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -484,7 +488,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
